--- a/dist/assets/images/propertygaga/report-task-opened.xlsx
+++ b/dist/assets/images/propertygaga/report-task-opened.xlsx
@@ -12,15 +12,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>Propertygaga</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+  <si>
+    <t>Perbadanan Pengurusan Relau Vista Apartment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Block 2-G-01, Lebuh Relau 6, 11900 Bayan Lepas, Penang, Malaysia +Tel/Fax : 04-6425118 Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="13"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>mcrelauvista@gmail.com</t>
+    </r>
   </si>
   <si>
     <t>Tasks - Opened</t>
   </si>
   <si>
-    <t>Accepted Date from 24 Jan 2023 to 24 Apr 2023</t>
+    <t>Accepted Date from 24 Jan 2025 to 24 Apr 2025</t>
   </si>
   <si>
     <t>Status</t>
@@ -29,22 +49,35 @@
     <t>Task ID</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>Action</t>
+    <t>Subject  /  Description</t>
+  </si>
+  <si>
+    <t>Activities &amp; Process</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>Quotation</t>
+  </si>
+  <si>
+    <t>Start Work</t>
+  </si>
+  <si>
+    <t>End Work</t>
   </si>
   <si>
     <t>Accepted</t>
   </si>
   <si>
-    <t>OT022</t>
-  </si>
-  <si>
-    <t>Cigarette butt in balcony</t>
+    <t>OT022
+Due Date: Due on 23 May 2025, 2:30pm + +Assigned: Staff 1</t>
+  </si>
+  <si>
+    <t>Cigarette butt in balcony
+Description goes here…goes here….</t>
   </si>
   <si>
     <t>24/04/2023 12:00:00 PM @@ -54,21 +87,434 @@
   24/04/2023 3:00:00 PM  activity3 description
-Quotation 1 - Company 1
-Quotation 2 - Company 2 (Awarded) -Quotation 3 - Company 3 - -Start work on 28 Apr 2023</t>
-  </si>
-  <si>
-    <t>Submitted -Sean - Unit 7-02-20
-23 Apr 2023
-Accepted
-Raymond
-24 Apr 2023
-Due
-23 May 2023</t>
+Process:
+process...jLorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud Sed ut perspiciatis unde omnis iste natus error sit voluptatem accusantium doloremque laudantium, totam rem aperiam, eaque ipsa quae ab illo inventore veritatis et quasi architecto beatae vitae dicta sunt explicabo. Nemo enim ipsam voluptatem quia voluptas sit aspernatur aut odit aut fugit, sed quia</t>
+  </si>
+  <si>
+    <t>[attach photos here…]
+[attach task photos]
+1. 2.
+3. 4.
+——————————
+End work:
+[attach end work photo]
+-</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>24/04/2023 12:00:00 PM +activity1 description
+24/04/2023 1:00:00 PM +activity2 description
+Process:
+process...jLorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud Sed ut perspiciatis unde omnis iste natus error sit voluptatem accusantium.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Quotation 1 - Company 1 (</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Quotation 2 - Company 2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">) Awared
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t> +Quotation 3 - Company 3 (</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Purchase Order:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Vendor: Company 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Signed Quotation: (</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Start work: [date, time]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Estimated Complete Date: [date]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Comment: hadjgljdg</t>
+    </r>
+  </si>
+  <si>
+    <t>KIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[attach photos here…]
+[attach task photos]
+1. 2.
+3. 4.
+——————————
+End work:
+[attach end work photos]
+-
+</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[attach photos here…]
+[attach task photos]
+1. 2.
+3. 4.
+——————————
+End work:
+[attach end work photos]
+1. 2.
+3. 4.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Quotation 1 - Company 1 (</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Quotation 2 - Company 2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">) Awarded
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t> +Quotation 3 - Company 3 (</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">End Date: [date]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Delivery Order: (</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>FIle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Comment: hsdlhgd
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Job done by: [Name]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -78,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -96,9 +542,9 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -106,8 +552,48 @@
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="13"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +612,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -151,47 +643,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
+      <left>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top>
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="12"/>
+      <bottom>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
+      <top>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,15 +708,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -217,16 +721,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -248,8 +767,12 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="fffeffff"/>
       <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="fffefefe"/>
+      <rgbColor rgb="ff2086af"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff0b6d32"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1343,243 +1866,394 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A5" xSplit="0" ySplit="4" activePane="bottomLeft" state="frozen"/>
+      <pane topLeftCell="A6" xSplit="0" ySplit="5" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="10.7891" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.9141" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.6484" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.8047" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.2266" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6641" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5781" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.9141" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.3672" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.3672" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.15" customHeight="1">
+    <row r="1" ht="26" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="31.1" customHeight="1">
+      <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" ht="27.4" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="B5" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="C5" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="D5" t="s" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" ht="176.55" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="E5" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="F5" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="G5" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="H5" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E5" t="s" s="7">
+    </row>
+    <row r="6" ht="260.55" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="30.55" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B6" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="164.35" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="164.35" customHeight="1">
+      <c r="A8" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" ht="164.35" customHeight="1">
+      <c r="A9" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s" s="11">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:E2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="F7" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="G7" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="F9" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="G9" r:id="rId5" location="" tooltip="" display=""/>
+    <hyperlink ref="H9" r:id="rId6" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
